--- a/ファイル名の登録/ファイル名情報.xlsx
+++ b/ファイル名の登録/ファイル名情報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19010359\Desktop\My_python\Monthly-inspection-data-transform\ファイル名の登録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE2AFA3-475D-40C8-B28E-E9C67EA0F347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B275D4-B95B-4C72-96A8-3CFEFD6E93C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2004" yWindow="2412" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,16 +77,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>点検基準表rev2.csv</t>
-    <rPh sb="0" eb="2">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>キジュンヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>＊シート名は”Sheet1”とすること
 ＊拡張子は”.csv”とすること</t>
     <rPh sb="4" eb="5">
@@ -112,14 +102,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\19010359\Desktop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>＊””は除いておくこと</t>
     <rPh sb="4" eb="5">
       <t>ノゾ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点検基準表.csv</t>
+    <rPh sb="0" eb="2">
+      <t>テンケン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キジュンヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C:\Users\●●●\Desktop</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -532,7 +532,7 @@
   <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" customHeight="1"/>
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:5" s="2" customFormat="1" ht="34.200000000000003" customHeight="1">
@@ -563,7 +563,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:5" s="2" customFormat="1" ht="34.200000000000003" customHeight="1">
@@ -571,22 +571,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="22.8" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ファイル名の登録/ファイル名情報.xlsx
+++ b/ファイル名の登録/ファイル名情報.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19010359\Desktop\My_python\Monthly-inspection-data-transform\ファイル名の登録\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B275D4-B95B-4C72-96A8-3CFEFD6E93C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB912C36-B784-48A4-877E-7CCE49554D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37860" yWindow="3525" windowWidth="17250" windowHeight="8865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,22 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>月例点検結果表.csv</t>
-    <rPh sb="0" eb="2">
-      <t>ゲツレイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テンケン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>＊シート名は”Sheet1”とすること
 ＊拡張子は”.csv”とすること</t>
     <rPh sb="4" eb="5">
@@ -109,6 +93,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>点検データ.csv</t>
+    <rPh sb="0" eb="2">
+      <t>テンケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>点検基準表.csv</t>
     <rPh sb="0" eb="2">
       <t>テンケン</t>
@@ -119,7 +110,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C:\Users\●●●\Desktop</t>
+    <t>C:\Users\●●\Desktop</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -532,7 +523,7 @@
   <dimension ref="B1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.8" customHeight="1"/>
@@ -552,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:5" s="2" customFormat="1" ht="34.200000000000003" customHeight="1">
@@ -560,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:5" s="2" customFormat="1" ht="34.200000000000003" customHeight="1">
@@ -574,19 +565,19 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="22.8" customHeight="1">
       <c r="B5" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
